--- a/files/menus/the_roost/lunch_theroost.xlsx
+++ b/files/menus/the_roost/lunch_theroost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\the_roost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB9A8AA-EC14-4EDA-B4D6-B74AFF84C6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F440102-D5E3-4CEA-AF23-EFCA771F03F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2265" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="7980" yWindow="585" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="lunch_theroost" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,9 +53,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
     <t>Egg, Sausage</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Wheat, sulphites, egg.</t>
   </si>
   <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
     <t>GF</t>
   </si>
   <si>
@@ -132,6 +126,9 @@
   </si>
   <si>
     <t>Cheese Curds</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -511,7 +508,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -541,190 +538,190 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/the_roost/lunch_theroost.xlsx
+++ b/files/menus/the_roost/lunch_theroost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\the_roost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F440102-D5E3-4CEA-AF23-EFCA771F03F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4306D-F733-4E88-8137-7263FE41251D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="585" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="1050" yWindow="1755" windowWidth="23700" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="lunch_theroost" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,45 +53,18 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>VGN, GF, DF</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
     <t>GF</t>
   </si>
   <si>
-    <t>GF,VEG</t>
-  </si>
-  <si>
     <t>Nutrition Label</t>
   </si>
   <si>
     <t>LeaveEmpty</t>
   </si>
   <si>
-    <t>Samosas</t>
-  </si>
-  <si>
-    <t>GF,VGN</t>
-  </si>
-  <si>
     <t>Classic Burger</t>
   </si>
   <si>
@@ -119,23 +92,83 @@
     <t>Poutine</t>
   </si>
   <si>
-    <t>Tomato, Lettuce</t>
-  </si>
-  <si>
-    <t>GFO, BC</t>
-  </si>
-  <si>
-    <t>Cheese Curds</t>
-  </si>
-  <si>
     <t>placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy, sesame, wheat, milk, eggs, gluten. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Beef_Burger</t>
+  </si>
+  <si>
+    <t>BC,VEG</t>
+  </si>
+  <si>
+    <t>Veggie_Burger</t>
+  </si>
+  <si>
+    <t>Wheat, milk, soy.</t>
+  </si>
+  <si>
+    <t>Chicken_Strips</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Beef Patty / Lettuce / Tomato /  Red Onion</t>
+  </si>
+  <si>
+    <t>Item will vary daily - find information in the cafeteria.</t>
+  </si>
+  <si>
+    <t>VEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golden Crispy Fries / Vegetarian Brown Gravy / Cheese Curds</t>
+  </si>
+  <si>
+    <t>Sesame Bun / Beef Patty / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t>Sesame Bun / Spicy Black Bean Patty / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t>Sesame Bun / Crispy Chicken / Lettuce / Tomato / Mayo (Add Buffalo Hot Sauce on Request!)</t>
+  </si>
+  <si>
+    <t>Ocean Wise Battered Cod / Golden Crispy Fries / Coleslaw / Lemon</t>
+  </si>
+  <si>
+    <t>Sesame Bun / Seasoned Pulled Pork / Coleslaw</t>
+  </si>
+  <si>
+    <t>Chicken Breast Fillets /Seasoned Breading / Your Choice Dipping Sauce</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, fish, mustard.</t>
+  </si>
+  <si>
+    <t>Island City Bun, Castle Cheese Cheddar</t>
+  </si>
+  <si>
+    <t>Island City Bun, Fresh Start Tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy, sesame, wheat, milk, eggs, gluten, mustard. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites. </t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Tuna_Salad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +178,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,10 +210,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +551,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -538,190 +581,190 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
